--- a/Presentacion 1/resultados_stepwise_pisa.xlsx
+++ b/Presentacion 1/resultados_stepwise_pisa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>coef</t>
   </si>
@@ -39,99 +39,99 @@
     <t>const</t>
   </si>
   <si>
+    <t>MATHEFF</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>WORKPAY</t>
+  </si>
+  <si>
+    <t>HISCED</t>
+  </si>
+  <si>
+    <t>ANXMAT</t>
+  </si>
+  <si>
+    <t>CREATAS</t>
+  </si>
+  <si>
+    <t>FAMCON</t>
+  </si>
+  <si>
+    <t>ST004D01T_2</t>
+  </si>
+  <si>
+    <t>EXERPRAC</t>
+  </si>
+  <si>
+    <t>MATHEASE</t>
+  </si>
+  <si>
+    <t>COGACMCO</t>
+  </si>
+  <si>
+    <t>GROSAGR</t>
+  </si>
+  <si>
+    <t>BSMJ</t>
+  </si>
+  <si>
+    <t>CNT_CHL</t>
+  </si>
+  <si>
+    <t>CNT_URY</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>HOMEPOS</t>
+  </si>
+  <si>
+    <t>CURIOAGR</t>
+  </si>
+  <si>
+    <t>SCHRISK</t>
+  </si>
+  <si>
+    <t>CREATSCH</t>
+  </si>
+  <si>
+    <t>COGACRCO</t>
+  </si>
+  <si>
+    <t>EXPO21ST</t>
+  </si>
+  <si>
+    <t>STUDYHMW</t>
+  </si>
+  <si>
+    <t>EXPECEDU</t>
+  </si>
+  <si>
+    <t>MATHPERS</t>
+  </si>
+  <si>
+    <t>FISCED</t>
+  </si>
+  <si>
+    <t>MATHPREF</t>
+  </si>
+  <si>
+    <t>MATHEF21</t>
+  </si>
+  <si>
+    <t>FAMSUP</t>
+  </si>
+  <si>
+    <t>INFOSEEK</t>
+  </si>
+  <si>
     <t>ICTRES</t>
   </si>
   <si>
-    <t>MATHEFF</t>
-  </si>
-  <si>
-    <t>REPEAT</t>
-  </si>
-  <si>
-    <t>WORKPAY</t>
-  </si>
-  <si>
-    <t>ANXMAT</t>
-  </si>
-  <si>
-    <t>CREATAS</t>
-  </si>
-  <si>
-    <t>FAMCON</t>
-  </si>
-  <si>
-    <t>HISCED</t>
-  </si>
-  <si>
-    <t>ST004D01T_2</t>
-  </si>
-  <si>
-    <t>EXERPRAC</t>
-  </si>
-  <si>
-    <t>MATHEASE</t>
-  </si>
-  <si>
-    <t>COGACMCO</t>
-  </si>
-  <si>
-    <t>GROSAGR</t>
-  </si>
-  <si>
-    <t>BSMJ</t>
-  </si>
-  <si>
-    <t>HOMEPOS</t>
-  </si>
-  <si>
-    <t>CNT_CHL</t>
-  </si>
-  <si>
-    <t>CNT_URY</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
-  <si>
-    <t>SCHRISK</t>
-  </si>
-  <si>
-    <t>CURIOAGR</t>
-  </si>
-  <si>
-    <t>CREATSCH</t>
-  </si>
-  <si>
-    <t>COGACRCO</t>
-  </si>
-  <si>
-    <t>EXPO21ST</t>
-  </si>
-  <si>
-    <t>STUDYHMW</t>
-  </si>
-  <si>
-    <t>EXPECEDU</t>
-  </si>
-  <si>
-    <t>MATHPERS</t>
-  </si>
-  <si>
-    <t>INFOSEEK</t>
-  </si>
-  <si>
-    <t>FAMSUP</t>
-  </si>
-  <si>
-    <t>FISCED</t>
-  </si>
-  <si>
-    <t>MATHPREF</t>
-  </si>
-  <si>
-    <t>MATHEF21</t>
-  </si>
-  <si>
     <t>MISSSC</t>
   </si>
   <si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>SKIPPING</t>
+  </si>
+  <si>
+    <t>ESCS</t>
+  </si>
+  <si>
+    <t>HISEI</t>
   </si>
   <si>
     <t>OPENART</t>
@@ -607,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-4.3875</v>
+        <v>13.7864</v>
       </c>
       <c r="C3">
-        <v>0.931</v>
+        <v>0.597</v>
       </c>
       <c r="D3">
-        <v>-4.711</v>
+        <v>23.112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-6.213</v>
+        <v>12.617</v>
       </c>
       <c r="G3">
-        <v>-2.562</v>
+        <v>14.956</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -630,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13.7864</v>
+        <v>-19.5222</v>
       </c>
       <c r="C4">
-        <v>0.597</v>
+        <v>1.717</v>
       </c>
       <c r="D4">
-        <v>23.112</v>
+        <v>-11.37</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.617</v>
+        <v>-22.887</v>
       </c>
       <c r="G4">
-        <v>14.956</v>
+        <v>-16.157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -653,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-19.5222</v>
+        <v>-2.4043</v>
       </c>
       <c r="C5">
-        <v>1.717</v>
+        <v>0.162</v>
       </c>
       <c r="D5">
-        <v>-11.37</v>
+        <v>-14.871</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-22.887</v>
+        <v>-2.721</v>
       </c>
       <c r="G5">
-        <v>-16.157</v>
+        <v>-2.087</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -676,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-2.4043</v>
+        <v>-7.4591</v>
       </c>
       <c r="C6">
-        <v>0.162</v>
+        <v>0.738</v>
       </c>
       <c r="D6">
-        <v>-14.871</v>
+        <v>-10.113</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-2.721</v>
+        <v>-8.904999999999999</v>
       </c>
       <c r="G6">
-        <v>-2.087</v>
+        <v>-6.013</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -768,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-7.4591</v>
+        <v>19.5988</v>
       </c>
       <c r="C10">
-        <v>0.738</v>
+        <v>0.982</v>
       </c>
       <c r="D10">
-        <v>-10.113</v>
+        <v>19.956</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-8.904999999999999</v>
+        <v>17.674</v>
       </c>
       <c r="G10">
-        <v>-6.013</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -791,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>19.5988</v>
+        <v>-2.1514</v>
       </c>
       <c r="C11">
-        <v>0.982</v>
+        <v>0.138</v>
       </c>
       <c r="D11">
-        <v>19.956</v>
+        <v>-15.585</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.674</v>
+        <v>-2.422</v>
       </c>
       <c r="G11">
-        <v>21.524</v>
+        <v>-1.881</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -814,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>-2.1514</v>
+        <v>12.4629</v>
       </c>
       <c r="C12">
-        <v>0.138</v>
+        <v>1.684</v>
       </c>
       <c r="D12">
-        <v>-15.585</v>
+        <v>7.401</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-2.422</v>
+        <v>9.162000000000001</v>
       </c>
       <c r="G12">
-        <v>-1.881</v>
+        <v>15.763</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -837,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>12.4629</v>
+        <v>-5.752</v>
       </c>
       <c r="C13">
-        <v>1.684</v>
+        <v>0.582</v>
       </c>
       <c r="D13">
-        <v>7.401</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.162000000000001</v>
+        <v>-6.893</v>
       </c>
       <c r="G13">
-        <v>15.763</v>
+        <v>-4.611</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -860,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>-5.752</v>
+        <v>4.9216</v>
       </c>
       <c r="C14">
-        <v>0.582</v>
+        <v>0.497</v>
       </c>
       <c r="D14">
-        <v>-9.880000000000001</v>
+        <v>9.904999999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-6.893</v>
+        <v>3.948</v>
       </c>
       <c r="G14">
-        <v>-4.611</v>
+        <v>5.895</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -883,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>4.9216</v>
+        <v>0.202</v>
       </c>
       <c r="C15">
-        <v>0.497</v>
+        <v>0.027</v>
       </c>
       <c r="D15">
-        <v>9.904999999999999</v>
+        <v>7.379</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.948</v>
+        <v>0.148</v>
       </c>
       <c r="G15">
-        <v>5.895</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -906,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.202</v>
+        <v>17.7981</v>
       </c>
       <c r="C16">
-        <v>0.027</v>
+        <v>1.492</v>
       </c>
       <c r="D16">
-        <v>7.379</v>
+        <v>11.926</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.148</v>
+        <v>14.873</v>
       </c>
       <c r="G16">
-        <v>0.256</v>
+        <v>20.723</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -929,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>19.301</v>
+        <v>24.2612</v>
       </c>
       <c r="C17">
-        <v>1.077</v>
+        <v>1.696</v>
       </c>
       <c r="D17">
-        <v>17.918</v>
+        <v>14.307</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.19</v>
+        <v>20.938</v>
       </c>
       <c r="G17">
-        <v>21.412</v>
+        <v>27.585</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -952,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>17.7981</v>
+        <v>9.593</v>
       </c>
       <c r="C18">
-        <v>1.492</v>
+        <v>0.944</v>
       </c>
       <c r="D18">
-        <v>11.926</v>
+        <v>10.158</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>14.873</v>
+        <v>7.742</v>
       </c>
       <c r="G18">
-        <v>20.723</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -975,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>24.2612</v>
+        <v>19.301</v>
       </c>
       <c r="C19">
-        <v>1.696</v>
+        <v>1.077</v>
       </c>
       <c r="D19">
-        <v>14.307</v>
+        <v>17.918</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.938</v>
+        <v>17.19</v>
       </c>
       <c r="G19">
-        <v>27.585</v>
+        <v>21.412</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -998,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>9.593</v>
+        <v>3.4557</v>
       </c>
       <c r="C20">
-        <v>0.944</v>
+        <v>0.53</v>
       </c>
       <c r="D20">
-        <v>10.158</v>
+        <v>6.517</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>7.742</v>
+        <v>2.416</v>
       </c>
       <c r="G20">
-        <v>11.444</v>
+        <v>4.495</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1044,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>3.4557</v>
+        <v>-3.7576</v>
       </c>
       <c r="C22">
-        <v>0.53</v>
+        <v>0.549</v>
       </c>
       <c r="D22">
-        <v>6.517</v>
+        <v>-6.848</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.416</v>
+        <v>-4.833</v>
       </c>
       <c r="G22">
-        <v>4.495</v>
+        <v>-2.682</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1067,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>-3.7576</v>
+        <v>3.8014</v>
       </c>
       <c r="C23">
-        <v>0.549</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D23">
-        <v>-6.848</v>
+        <v>6.696</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-4.833</v>
+        <v>2.689</v>
       </c>
       <c r="G23">
-        <v>-2.682</v>
+        <v>4.914</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1090,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>3.8014</v>
+        <v>-2.5057</v>
       </c>
       <c r="C24">
-        <v>0.5679999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="D24">
-        <v>6.696</v>
+        <v>-5.062</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.689</v>
+        <v>-3.476</v>
       </c>
       <c r="G24">
-        <v>4.914</v>
+        <v>-1.535</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1113,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>-2.5057</v>
+        <v>-1.4789</v>
       </c>
       <c r="C25">
-        <v>0.495</v>
+        <v>0.172</v>
       </c>
       <c r="D25">
-        <v>-5.062</v>
+        <v>-8.587999999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-3.476</v>
+        <v>-1.816</v>
       </c>
       <c r="G25">
-        <v>-1.535</v>
+        <v>-1.141</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1136,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-1.4789</v>
+        <v>1.8268</v>
       </c>
       <c r="C26">
-        <v>0.172</v>
+        <v>0.29</v>
       </c>
       <c r="D26">
-        <v>-8.587999999999999</v>
+        <v>6.304</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1.816</v>
+        <v>1.259</v>
       </c>
       <c r="G26">
-        <v>-1.141</v>
+        <v>2.395</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1159,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1.8268</v>
+        <v>3.3361</v>
       </c>
       <c r="C27">
-        <v>0.29</v>
+        <v>0.553</v>
       </c>
       <c r="D27">
-        <v>6.304</v>
+        <v>6.029</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.259</v>
+        <v>2.252</v>
       </c>
       <c r="G27">
-        <v>2.395</v>
+        <v>4.421</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1182,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>3.3361</v>
+        <v>1.4176</v>
       </c>
       <c r="C28">
-        <v>0.553</v>
+        <v>0.302</v>
       </c>
       <c r="D28">
-        <v>6.029</v>
+        <v>4.691</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.252</v>
+        <v>0.825</v>
       </c>
       <c r="G28">
-        <v>4.421</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1205,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>-2.9437</v>
+        <v>8.223699999999999</v>
       </c>
       <c r="C29">
-        <v>0.49</v>
+        <v>1.453</v>
       </c>
       <c r="D29">
-        <v>-6.005</v>
+        <v>5.66</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-3.905</v>
+        <v>5.376</v>
       </c>
       <c r="G29">
-        <v>-1.983</v>
+        <v>11.071</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1228,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>-3.0152</v>
+        <v>-3.279</v>
       </c>
       <c r="C30">
-        <v>0.456</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D30">
-        <v>-6.609</v>
+        <v>-4.766</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-3.909</v>
+        <v>-4.627</v>
       </c>
       <c r="G30">
-        <v>-2.121</v>
+        <v>-1.931</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1251,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1.4176</v>
+        <v>-3.0152</v>
       </c>
       <c r="C31">
-        <v>0.302</v>
+        <v>0.456</v>
       </c>
       <c r="D31">
-        <v>4.691</v>
+        <v>-6.609</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.825</v>
+        <v>-3.909</v>
       </c>
       <c r="G31">
-        <v>2.01</v>
+        <v>-2.121</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1274,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>8.223699999999999</v>
+        <v>-2.9437</v>
       </c>
       <c r="C32">
-        <v>1.453</v>
+        <v>0.49</v>
       </c>
       <c r="D32">
-        <v>5.66</v>
+        <v>-6.005</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>5.376</v>
+        <v>-3.905</v>
       </c>
       <c r="G32">
-        <v>11.071</v>
+        <v>-1.983</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1297,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>-3.279</v>
+        <v>-4.3875</v>
       </c>
       <c r="C33">
-        <v>0.6879999999999999</v>
+        <v>0.931</v>
       </c>
       <c r="D33">
-        <v>-4.766</v>
+        <v>-4.711</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-4.627</v>
+        <v>-6.213</v>
       </c>
       <c r="G33">
-        <v>-1.931</v>
+        <v>-2.562</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1690,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1721,160 +1727,160 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>419.1958</v>
+        <v>542.5368999999999</v>
       </c>
       <c r="C2">
-        <v>5.42</v>
+        <v>9.394</v>
       </c>
       <c r="D2">
-        <v>77.34999999999999</v>
+        <v>57.752</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>408.574</v>
+        <v>524.125</v>
       </c>
       <c r="G2">
-        <v>429.818</v>
+        <v>560.949</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>-5.9588</v>
+        <v>36.1431</v>
       </c>
       <c r="C3">
-        <v>1.16</v>
+        <v>3.337</v>
       </c>
       <c r="D3">
-        <v>-5.137</v>
+        <v>10.83</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-8.231999999999999</v>
+        <v>29.602</v>
       </c>
       <c r="G3">
-        <v>-3.685</v>
+        <v>42.684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-3.2815</v>
+        <v>-3.2863</v>
       </c>
       <c r="C4">
         <v>0.197</v>
       </c>
       <c r="D4">
-        <v>-16.673</v>
+        <v>-16.691</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-3.667</v>
+        <v>-3.672</v>
       </c>
       <c r="G4">
-        <v>-2.896</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>22.279</v>
+        <v>-21.6432</v>
       </c>
       <c r="C5">
-        <v>1.323</v>
+        <v>2.195</v>
       </c>
       <c r="D5">
-        <v>16.843</v>
+        <v>-9.862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.686</v>
+        <v>-25.945</v>
       </c>
       <c r="G5">
-        <v>24.872</v>
+        <v>-17.342</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-21.6735</v>
+        <v>11.6997</v>
       </c>
       <c r="C6">
-        <v>2.194</v>
+        <v>0.731</v>
       </c>
       <c r="D6">
-        <v>-9.877000000000001</v>
+        <v>16.016</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-25.974</v>
+        <v>10.268</v>
       </c>
       <c r="G6">
-        <v>-17.373</v>
+        <v>13.131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>11.7135</v>
+        <v>-3.1492</v>
       </c>
       <c r="C7">
-        <v>0.73</v>
+        <v>0.171</v>
       </c>
       <c r="D7">
-        <v>16.038</v>
+        <v>-18.376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10.282</v>
+        <v>-3.485</v>
       </c>
       <c r="G7">
-        <v>13.145</v>
+        <v>-2.813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-3.1496</v>
+        <v>-8.439399999999999</v>
       </c>
       <c r="C8">
-        <v>0.171</v>
+        <v>0.805</v>
       </c>
       <c r="D8">
-        <v>-18.378</v>
+        <v>-10.488</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.485</v>
+        <v>-10.017</v>
       </c>
       <c r="G8">
-        <v>-2.814</v>
+        <v>-6.862</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1882,22 +1888,22 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-9.738099999999999</v>
+        <v>-9.723599999999999</v>
       </c>
       <c r="C9">
-        <v>0.5629999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D9">
-        <v>-17.311</v>
+        <v>-17.288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-10.841</v>
+        <v>-10.826</v>
       </c>
       <c r="G9">
-        <v>-8.635999999999999</v>
+        <v>-8.621</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1905,19 +1911,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4.9806</v>
+        <v>4.9809</v>
       </c>
       <c r="C10">
         <v>0.449</v>
       </c>
       <c r="D10">
-        <v>11.097</v>
+        <v>11.104</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.101</v>
+        <v>4.102</v>
       </c>
       <c r="G10">
         <v>5.86</v>
@@ -1925,177 +1931,177 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>7.3898</v>
+        <v>6.0415</v>
       </c>
       <c r="C11">
-        <v>0.601</v>
+        <v>0.643</v>
       </c>
       <c r="D11">
-        <v>12.304</v>
+        <v>9.393000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.213</v>
+        <v>4.781</v>
       </c>
       <c r="G11">
-        <v>8.567</v>
+        <v>7.302</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>6.0353</v>
+        <v>7.3801</v>
       </c>
       <c r="C12">
-        <v>0.643</v>
+        <v>0.601</v>
       </c>
       <c r="D12">
-        <v>9.384</v>
+        <v>12.29</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.775</v>
+        <v>6.203</v>
       </c>
       <c r="G12">
-        <v>7.296</v>
+        <v>8.557</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>-3.233</v>
+        <v>-3.2422</v>
       </c>
       <c r="C13">
         <v>0.634</v>
       </c>
       <c r="D13">
-        <v>-5.103</v>
+        <v>-5.116</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-4.475</v>
+        <v>-4.484</v>
       </c>
       <c r="G13">
-        <v>-1.991</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>19.5852</v>
+        <v>19.4903</v>
       </c>
       <c r="C14">
         <v>1.81</v>
       </c>
       <c r="D14">
-        <v>10.82</v>
+        <v>10.768</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.038</v>
+        <v>15.943</v>
       </c>
       <c r="G14">
-        <v>23.133</v>
+        <v>23.038</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>12.0104</v>
+        <v>12.0392</v>
       </c>
       <c r="C15">
-        <v>1.205</v>
+        <v>1.206</v>
       </c>
       <c r="D15">
-        <v>9.967000000000001</v>
+        <v>9.984999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9.648999999999999</v>
+        <v>9.676</v>
       </c>
       <c r="G15">
-        <v>14.372</v>
+        <v>14.402</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>24.3472</v>
+        <v>24.3088</v>
       </c>
       <c r="C16">
-        <v>1.937</v>
+        <v>1.938</v>
       </c>
       <c r="D16">
-        <v>12.568</v>
+        <v>12.545</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.55</v>
+        <v>20.511</v>
       </c>
       <c r="G16">
-        <v>28.144</v>
+        <v>28.107</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>-7.2295</v>
+        <v>-7.2317</v>
       </c>
       <c r="C17">
         <v>0.845</v>
       </c>
       <c r="D17">
-        <v>-8.558999999999999</v>
+        <v>-8.56</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-8.885</v>
+        <v>-8.887</v>
       </c>
       <c r="G17">
-        <v>-5.574</v>
+        <v>-5.576</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.2412</v>
+        <v>0.2415</v>
       </c>
       <c r="C18">
         <v>0.035</v>
       </c>
       <c r="D18">
-        <v>6.985</v>
+        <v>6.995</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2109,269 +2115,269 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-4.6834</v>
+        <v>-4.2315</v>
       </c>
       <c r="C19">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="D19">
-        <v>-7.446</v>
+        <v>-6.619</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-5.916</v>
+        <v>-5.484</v>
       </c>
       <c r="G19">
-        <v>-3.451</v>
+        <v>-2.979</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B20">
-        <v>2.2367</v>
+        <v>-0.7659</v>
       </c>
       <c r="C20">
-        <v>0.364</v>
+        <v>0.095</v>
       </c>
       <c r="D20">
-        <v>6.144</v>
+        <v>-8.045999999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.523</v>
+        <v>-0.952</v>
       </c>
       <c r="G20">
-        <v>2.95</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>-13.9383</v>
+        <v>-4.6899</v>
       </c>
       <c r="C21">
-        <v>2.311</v>
+        <v>0.629</v>
       </c>
       <c r="D21">
-        <v>-6.031</v>
+        <v>-7.457</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-18.468</v>
+        <v>-5.922</v>
       </c>
       <c r="G21">
-        <v>-9.409000000000001</v>
+        <v>-3.457</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-4.2317</v>
+        <v>2.2357</v>
       </c>
       <c r="C22">
-        <v>0.639</v>
+        <v>0.364</v>
       </c>
       <c r="D22">
-        <v>-6.619</v>
+        <v>6.143</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-5.485</v>
+        <v>1.522</v>
       </c>
       <c r="G22">
-        <v>-2.979</v>
+        <v>2.949</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>6.2886</v>
+        <v>-5.1314</v>
       </c>
       <c r="C23">
-        <v>0.716</v>
+        <v>0.724</v>
       </c>
       <c r="D23">
-        <v>8.782999999999999</v>
+        <v>-7.085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.885</v>
+        <v>-6.551</v>
       </c>
       <c r="G23">
-        <v>7.692</v>
+        <v>-3.712</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-5.5686</v>
+        <v>6.2882</v>
       </c>
       <c r="C24">
-        <v>0.723</v>
+        <v>0.716</v>
       </c>
       <c r="D24">
-        <v>-7.699</v>
+        <v>8.784000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-6.986</v>
+        <v>4.885</v>
       </c>
       <c r="G24">
-        <v>-4.151</v>
+        <v>7.691</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>-2.9156</v>
+        <v>-5.5703</v>
       </c>
       <c r="C25">
-        <v>0.601</v>
+        <v>0.723</v>
       </c>
       <c r="D25">
-        <v>-4.855</v>
+        <v>-7.702</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-4.093</v>
+        <v>-6.988</v>
       </c>
       <c r="G25">
-        <v>-1.739</v>
+        <v>-4.153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>8.314299999999999</v>
+        <v>3.8039</v>
       </c>
       <c r="C26">
-        <v>1.554</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D26">
-        <v>5.352</v>
+        <v>5.58</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.269</v>
+        <v>2.468</v>
       </c>
       <c r="G26">
-        <v>11.359</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>-5.1455</v>
+        <v>-13.9668</v>
       </c>
       <c r="C27">
-        <v>0.724</v>
+        <v>2.31</v>
       </c>
       <c r="D27">
-        <v>-7.104</v>
+        <v>-6.047</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-6.565</v>
+        <v>-18.493</v>
       </c>
       <c r="G27">
-        <v>-3.726</v>
+        <v>-9.44</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B28">
-        <v>3.7932</v>
+        <v>3.4645</v>
       </c>
       <c r="C28">
-        <v>0.6820000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="D28">
-        <v>5.564</v>
+        <v>4.747</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.457</v>
+        <v>2.034</v>
       </c>
       <c r="G28">
-        <v>5.129</v>
+        <v>4.895</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>3.4639</v>
+        <v>-2.9028</v>
       </c>
       <c r="C29">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="D29">
-        <v>4.746</v>
+        <v>-4.835</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.033</v>
+        <v>-4.08</v>
       </c>
       <c r="G29">
-        <v>4.894</v>
+        <v>-1.726</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.2731</v>
+        <v>-1.2735</v>
       </c>
       <c r="C30">
         <v>0.211</v>
       </c>
       <c r="D30">
-        <v>-6.044</v>
+        <v>-6.047</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2380,375 +2386,398 @@
         <v>-1.686</v>
       </c>
       <c r="G30">
-        <v>-0.86</v>
+        <v>-0.861</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31">
-        <v>2.6612</v>
+        <v>8.279400000000001</v>
       </c>
       <c r="C31">
-        <v>0.632</v>
+        <v>1.554</v>
       </c>
       <c r="D31">
-        <v>4.212</v>
+        <v>5.328</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.423</v>
+        <v>5.234</v>
       </c>
       <c r="G31">
-        <v>3.9</v>
+        <v>11.325</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>-3.3599</v>
+        <v>2.6574</v>
       </c>
       <c r="C32">
-        <v>0.61</v>
+        <v>0.632</v>
       </c>
       <c r="D32">
-        <v>-5.506</v>
+        <v>4.206</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-4.556</v>
+        <v>1.419</v>
       </c>
       <c r="G32">
-        <v>-2.164</v>
+        <v>3.896</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>-5.7903</v>
+        <v>-3.3597</v>
       </c>
       <c r="C33">
-        <v>1.283</v>
+        <v>0.61</v>
       </c>
       <c r="D33">
-        <v>-4.515</v>
+        <v>-5.505</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-8.304</v>
+        <v>-4.556</v>
       </c>
       <c r="G33">
-        <v>-3.277</v>
+        <v>-2.164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>6.071</v>
+        <v>0.3341</v>
       </c>
       <c r="C34">
-        <v>0.5639999999999999</v>
+        <v>0.046</v>
       </c>
       <c r="D34">
-        <v>10.763</v>
+        <v>7.235</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4.965</v>
+        <v>0.244</v>
       </c>
       <c r="G34">
-        <v>7.176</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>-8.475199999999999</v>
+        <v>0.2933</v>
       </c>
       <c r="C35">
-        <v>0.803</v>
+        <v>0.048</v>
       </c>
       <c r="D35">
-        <v>-10.55</v>
+        <v>6.064</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-10.05</v>
+        <v>0.198</v>
       </c>
       <c r="G35">
-        <v>-6.901</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>1.2143</v>
+        <v>-5.7973</v>
       </c>
       <c r="C36">
-        <v>0.363</v>
+        <v>1.283</v>
       </c>
       <c r="D36">
-        <v>3.342</v>
+        <v>-4.519</v>
       </c>
       <c r="E36">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.502</v>
+        <v>-8.311999999999999</v>
       </c>
       <c r="G36">
-        <v>1.926</v>
+        <v>-3.283</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>0.2897</v>
+        <v>-5.9267</v>
       </c>
       <c r="C37">
-        <v>0.029</v>
+        <v>1.161</v>
       </c>
       <c r="D37">
-        <v>10.074</v>
+        <v>-5.107</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.233</v>
+        <v>-8.201000000000001</v>
       </c>
       <c r="G37">
-        <v>0.346</v>
+        <v>-3.652</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>0.2471</v>
+        <v>6.9313</v>
       </c>
       <c r="C38">
-        <v>0.032</v>
+        <v>1.943</v>
       </c>
       <c r="D38">
-        <v>7.76</v>
+        <v>3.568</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.185</v>
+        <v>3.123</v>
       </c>
       <c r="G38">
-        <v>0.31</v>
+        <v>10.739</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>2.5554</v>
+        <v>2.5348</v>
       </c>
       <c r="C39">
         <v>0.672</v>
       </c>
       <c r="D39">
-        <v>3.803</v>
+        <v>3.773</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.239</v>
+        <v>1.218</v>
       </c>
       <c r="G39">
-        <v>3.872</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>6.8722</v>
+        <v>6.8624</v>
       </c>
       <c r="C40">
         <v>1.801</v>
       </c>
       <c r="D40">
-        <v>3.815</v>
+        <v>3.809</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3.342</v>
+        <v>3.332</v>
       </c>
       <c r="G40">
-        <v>10.402</v>
+        <v>10.393</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>-2.2177</v>
+        <v>-2.2147</v>
       </c>
       <c r="C41">
         <v>0.573</v>
       </c>
       <c r="D41">
-        <v>-3.87</v>
+        <v>-3.865</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-3.341</v>
+        <v>-3.338</v>
       </c>
       <c r="G41">
-        <v>-1.095</v>
+        <v>-1.091</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>2.3057</v>
+        <v>2.2956</v>
       </c>
       <c r="C42">
         <v>0.694</v>
       </c>
       <c r="D42">
-        <v>3.321</v>
+        <v>3.306</v>
       </c>
       <c r="E42">
         <v>0.001</v>
       </c>
       <c r="F42">
-        <v>0.945</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G42">
-        <v>3.666</v>
+        <v>3.657</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>3.6227</v>
+        <v>1.1623</v>
       </c>
       <c r="C43">
-        <v>1.236</v>
+        <v>0.366</v>
       </c>
       <c r="D43">
-        <v>2.932</v>
+        <v>3.175</v>
       </c>
       <c r="E43">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F43">
-        <v>1.201</v>
+        <v>0.445</v>
       </c>
       <c r="G43">
-        <v>6.045</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>-3.3715</v>
+        <v>3.6466</v>
       </c>
       <c r="C44">
-        <v>1.139</v>
+        <v>1.236</v>
       </c>
       <c r="D44">
-        <v>-2.96</v>
+        <v>2.951</v>
       </c>
       <c r="E44">
         <v>0.003</v>
       </c>
       <c r="F44">
-        <v>-5.604</v>
+        <v>1.225</v>
       </c>
       <c r="G44">
-        <v>-1.139</v>
+        <v>6.068</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>-7.6621</v>
+        <v>-3.3843</v>
       </c>
       <c r="C45">
-        <v>2.708</v>
+        <v>1.139</v>
       </c>
       <c r="D45">
-        <v>-2.83</v>
+        <v>-2.971</v>
       </c>
       <c r="E45">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F45">
-        <v>-12.969</v>
+        <v>-5.617</v>
       </c>
       <c r="G45">
-        <v>-2.355</v>
+        <v>-1.152</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>-7.6824</v>
+      </c>
+      <c r="C46">
+        <v>2.708</v>
+      </c>
+      <c r="D46">
+        <v>-2.837</v>
+      </c>
+      <c r="E46">
+        <v>0.005</v>
+      </c>
+      <c r="F46">
+        <v>-12.99</v>
+      </c>
+      <c r="G46">
+        <v>-2.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B46">
-        <v>2.0278</v>
-      </c>
-      <c r="C46">
+      <c r="B47">
+        <v>2.0326</v>
+      </c>
+      <c r="C47">
         <v>0.752</v>
       </c>
-      <c r="D46">
-        <v>2.697</v>
-      </c>
-      <c r="E46">
+      <c r="D47">
+        <v>2.704</v>
+      </c>
+      <c r="E47">
         <v>0.007</v>
       </c>
-      <c r="F46">
-        <v>0.554</v>
-      </c>
-      <c r="G46">
-        <v>3.501</v>
+      <c r="F47">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="G47">
+        <v>3.506</v>
       </c>
     </row>
   </sheetData>
@@ -2812,142 +2841,142 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-7.757</v>
+        <v>12.4051</v>
       </c>
       <c r="C3">
-        <v>1.095</v>
+        <v>0.704</v>
       </c>
       <c r="D3">
-        <v>-7.085</v>
+        <v>17.614</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-9.903</v>
+        <v>11.025</v>
       </c>
       <c r="G3">
-        <v>-5.611</v>
+        <v>13.785</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>12.4051</v>
+        <v>-3.2994</v>
       </c>
       <c r="C4">
-        <v>0.704</v>
+        <v>0.184</v>
       </c>
       <c r="D4">
-        <v>17.614</v>
+        <v>-17.915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.025</v>
+        <v>-3.66</v>
       </c>
       <c r="G4">
-        <v>13.785</v>
+        <v>-2.938</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>-3.2994</v>
+        <v>-22.4004</v>
       </c>
       <c r="C5">
-        <v>0.184</v>
+        <v>2.106</v>
       </c>
       <c r="D5">
-        <v>-17.915</v>
+        <v>-10.637</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.66</v>
+        <v>-26.528</v>
       </c>
       <c r="G5">
-        <v>-2.938</v>
+        <v>-18.273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>24.5537</v>
+        <v>-7.105</v>
       </c>
       <c r="C6">
-        <v>1.259</v>
+        <v>0.779</v>
       </c>
       <c r="D6">
-        <v>19.5</v>
+        <v>-9.125</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.086</v>
+        <v>-8.631</v>
       </c>
       <c r="G6">
-        <v>27.022</v>
+        <v>-5.579</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-22.4004</v>
+        <v>-8.0128</v>
       </c>
       <c r="C7">
-        <v>2.106</v>
+        <v>0.534</v>
       </c>
       <c r="D7">
-        <v>-10.637</v>
+        <v>-14.997</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-26.528</v>
+        <v>-9.06</v>
       </c>
       <c r="G7">
-        <v>-18.273</v>
+        <v>-6.966</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-8.0128</v>
+        <v>5.3723</v>
       </c>
       <c r="C8">
-        <v>0.534</v>
+        <v>0.434</v>
       </c>
       <c r="D8">
-        <v>-14.997</v>
+        <v>12.385</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9.06</v>
+        <v>4.522</v>
       </c>
       <c r="G8">
-        <v>-6.966</v>
+        <v>6.222</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>-2.7611</v>
@@ -2970,7 +2999,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>21.7586</v>
@@ -2993,53 +3022,53 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>5.3723</v>
+        <v>6.7383</v>
       </c>
       <c r="C11">
-        <v>0.434</v>
+        <v>0.588</v>
       </c>
       <c r="D11">
-        <v>12.385</v>
+        <v>11.451</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.522</v>
+        <v>5.585</v>
       </c>
       <c r="G11">
-        <v>6.222</v>
+        <v>7.892</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>6.7383</v>
+        <v>6.2669</v>
       </c>
       <c r="C12">
-        <v>0.588</v>
+        <v>0.605</v>
       </c>
       <c r="D12">
-        <v>11.451</v>
+        <v>10.363</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.585</v>
+        <v>5.082</v>
       </c>
       <c r="G12">
-        <v>7.892</v>
+        <v>7.452</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>23.1954</v>
@@ -3062,7 +3091,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>26.0236</v>
@@ -3085,30 +3114,30 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>6.2669</v>
+        <v>-5.1419</v>
       </c>
       <c r="C15">
-        <v>0.605</v>
+        <v>0.582</v>
       </c>
       <c r="D15">
-        <v>10.363</v>
+        <v>-8.839</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.082</v>
+        <v>-6.282</v>
       </c>
       <c r="G15">
-        <v>7.452</v>
+        <v>-4.002</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>-3.2084</v>
@@ -3131,99 +3160,99 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>-5.1419</v>
+        <v>0.2423</v>
       </c>
       <c r="C17">
-        <v>0.582</v>
+        <v>0.033</v>
       </c>
       <c r="D17">
-        <v>-8.839</v>
+        <v>7.392</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-6.282</v>
+        <v>0.178</v>
       </c>
       <c r="G17">
-        <v>-4.002</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>9.4057</v>
+        <v>24.5537</v>
       </c>
       <c r="C18">
-        <v>1.143</v>
+        <v>1.259</v>
       </c>
       <c r="D18">
-        <v>8.231999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.166</v>
+        <v>22.086</v>
       </c>
       <c r="G18">
-        <v>11.645</v>
+        <v>27.022</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.2423</v>
+        <v>9.4057</v>
       </c>
       <c r="C19">
-        <v>0.033</v>
+        <v>1.143</v>
       </c>
       <c r="D19">
-        <v>7.392</v>
+        <v>8.231999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.178</v>
+        <v>7.166</v>
       </c>
       <c r="G19">
-        <v>0.307</v>
+        <v>11.645</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>12.4748</v>
+        <v>-7.757</v>
       </c>
       <c r="C20">
-        <v>1.478</v>
+        <v>1.095</v>
       </c>
       <c r="D20">
-        <v>8.44</v>
+        <v>-7.085</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.577999999999999</v>
+        <v>-9.903</v>
       </c>
       <c r="G20">
-        <v>15.372</v>
+        <v>-5.611</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-4.3407</v>
@@ -3246,352 +3275,352 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>-1.6736</v>
+        <v>12.4748</v>
       </c>
       <c r="C22">
-        <v>0.197</v>
+        <v>1.478</v>
       </c>
       <c r="D22">
-        <v>-8.503</v>
+        <v>8.44</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-2.059</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="G22">
-        <v>-1.288</v>
+        <v>15.372</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>6.7477</v>
+        <v>-1.6736</v>
       </c>
       <c r="C23">
-        <v>0.677</v>
+        <v>0.197</v>
       </c>
       <c r="D23">
-        <v>9.967000000000001</v>
+        <v>-8.503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.421</v>
+        <v>-2.059</v>
       </c>
       <c r="G23">
-        <v>8.074999999999999</v>
+        <v>-1.288</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-5.3428</v>
+        <v>6.7477</v>
       </c>
       <c r="C24">
-        <v>0.6860000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="D24">
-        <v>-7.789</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-6.687</v>
+        <v>5.421</v>
       </c>
       <c r="G24">
-        <v>-3.998</v>
+        <v>8.074999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>-4.5573</v>
+        <v>-5.3428</v>
       </c>
       <c r="C25">
-        <v>0.806</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D25">
-        <v>-5.655</v>
+        <v>-7.789</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-6.137</v>
+        <v>-6.687</v>
       </c>
       <c r="G25">
-        <v>-2.978</v>
+        <v>-3.998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>3.9312</v>
+        <v>-4.5573</v>
       </c>
       <c r="C26">
-        <v>0.647</v>
+        <v>0.806</v>
       </c>
       <c r="D26">
-        <v>6.078</v>
+        <v>-5.655</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.663</v>
+        <v>-6.137</v>
       </c>
       <c r="G26">
-        <v>5.199</v>
+        <v>-2.978</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>-4.0058</v>
+        <v>3.9312</v>
       </c>
       <c r="C27">
         <v>0.647</v>
       </c>
       <c r="D27">
-        <v>-6.188</v>
+        <v>6.078</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-5.275</v>
+        <v>2.663</v>
       </c>
       <c r="G27">
-        <v>-2.737</v>
+        <v>5.199</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>3.7023</v>
+        <v>-4.0058</v>
       </c>
       <c r="C28">
-        <v>0.6870000000000001</v>
+        <v>0.647</v>
       </c>
       <c r="D28">
-        <v>5.392</v>
+        <v>-6.188</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.357</v>
+        <v>-5.275</v>
       </c>
       <c r="G28">
-        <v>5.048</v>
+        <v>-2.737</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>-3.5245</v>
+        <v>3.7023</v>
       </c>
       <c r="C29">
-        <v>0.596</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D29">
-        <v>-5.919</v>
+        <v>5.392</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-4.692</v>
+        <v>2.357</v>
       </c>
       <c r="G29">
-        <v>-2.357</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>-6.0947</v>
+        <v>-3.5245</v>
       </c>
       <c r="C30">
-        <v>1.208</v>
+        <v>0.596</v>
       </c>
       <c r="D30">
-        <v>-5.046</v>
+        <v>-5.919</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-8.462</v>
+        <v>-4.692</v>
       </c>
       <c r="G30">
-        <v>-3.727</v>
+        <v>-2.357</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>-2.8848</v>
+        <v>-6.0947</v>
       </c>
       <c r="C31">
-        <v>0.538</v>
+        <v>1.208</v>
       </c>
       <c r="D31">
-        <v>-5.358</v>
+        <v>-5.046</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-3.94</v>
+        <v>-8.462</v>
       </c>
       <c r="G31">
-        <v>-1.829</v>
+        <v>-3.727</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>1.7135</v>
+        <v>-2.8848</v>
       </c>
       <c r="C32">
-        <v>0.347</v>
+        <v>0.538</v>
       </c>
       <c r="D32">
-        <v>4.938</v>
+        <v>-5.358</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.033</v>
+        <v>-3.94</v>
       </c>
       <c r="G32">
-        <v>2.394</v>
+        <v>-1.829</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>8.547800000000001</v>
+        <v>1.7135</v>
       </c>
       <c r="C33">
-        <v>1.753</v>
+        <v>0.347</v>
       </c>
       <c r="D33">
-        <v>4.876</v>
+        <v>4.938</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5.112</v>
+        <v>1.033</v>
       </c>
       <c r="G33">
-        <v>11.984</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>-8.925800000000001</v>
+        <v>8.547800000000001</v>
       </c>
       <c r="C34">
-        <v>2.105</v>
+        <v>1.753</v>
       </c>
       <c r="D34">
-        <v>-4.24</v>
+        <v>4.876</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-13.051</v>
+        <v>5.112</v>
       </c>
       <c r="G34">
-        <v>-4.8</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>0.2487</v>
+        <v>1.1387</v>
       </c>
       <c r="C35">
-        <v>0.031</v>
+        <v>0.35</v>
       </c>
       <c r="D35">
-        <v>8.114000000000001</v>
+        <v>3.254</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F35">
-        <v>0.189</v>
+        <v>0.453</v>
       </c>
       <c r="G35">
-        <v>0.309</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2798</v>
+        <v>-8.925800000000001</v>
       </c>
       <c r="C36">
-        <v>0.028</v>
+        <v>2.105</v>
       </c>
       <c r="D36">
-        <v>10.02</v>
+        <v>-4.24</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.225</v>
+        <v>-13.051</v>
       </c>
       <c r="G36">
-        <v>0.335</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>-2.3118</v>
@@ -3614,140 +3643,140 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>1.8632</v>
+        <v>0.2798</v>
       </c>
       <c r="C38">
-        <v>0.579</v>
+        <v>0.028</v>
       </c>
       <c r="D38">
-        <v>3.216</v>
+        <v>10.02</v>
       </c>
       <c r="E38">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.728</v>
+        <v>0.225</v>
       </c>
       <c r="G38">
-        <v>2.999</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-3.6828</v>
+        <v>4.88</v>
       </c>
       <c r="C39">
-        <v>1.094</v>
+        <v>0.538</v>
       </c>
       <c r="D39">
-        <v>-3.366</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="E39">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>-5.827</v>
+        <v>3.825</v>
       </c>
       <c r="G39">
-        <v>-1.538</v>
+        <v>5.935</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>2.2113</v>
+        <v>0.2487</v>
       </c>
       <c r="C40">
-        <v>0.707</v>
+        <v>0.031</v>
       </c>
       <c r="D40">
-        <v>3.126</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="E40">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.825</v>
+        <v>0.189</v>
       </c>
       <c r="G40">
-        <v>3.598</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>4.88</v>
+        <v>1.8632</v>
       </c>
       <c r="C41">
-        <v>0.538</v>
+        <v>0.579</v>
       </c>
       <c r="D41">
-        <v>9.069000000000001</v>
+        <v>3.216</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F41">
-        <v>3.825</v>
+        <v>0.728</v>
       </c>
       <c r="G41">
-        <v>5.935</v>
+        <v>2.999</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>-7.105</v>
+        <v>-3.6828</v>
       </c>
       <c r="C42">
-        <v>0.779</v>
+        <v>1.094</v>
       </c>
       <c r="D42">
-        <v>-9.125</v>
+        <v>-3.366</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F42">
-        <v>-8.631</v>
+        <v>-5.827</v>
       </c>
       <c r="G42">
-        <v>-5.579</v>
+        <v>-1.538</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1.1387</v>
+        <v>2.2113</v>
       </c>
       <c r="C43">
-        <v>0.35</v>
+        <v>0.707</v>
       </c>
       <c r="D43">
-        <v>3.254</v>
+        <v>3.126</v>
       </c>
       <c r="E43">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F43">
-        <v>0.453</v>
+        <v>0.825</v>
       </c>
       <c r="G43">
-        <v>1.825</v>
+        <v>3.598</v>
       </c>
     </row>
   </sheetData>
